--- a/File_Excel/commenti_odio_per_notizia_cronaca_nera.xlsx
+++ b/File_Excel/commenti_odio_per_notizia_cronaca_nera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,11 +693,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -709,16 +709,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -735,11 +735,11 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -751,16 +751,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -772,16 +772,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -798,53 +798,53 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'implosione del sottomarino Titan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>L'omicidio di Giulia Cecchettin</t>
+          <t>L'implosione del sottomarino Titan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -861,11 +861,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -877,7 +877,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -898,7 +898,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -919,7 +919,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -940,7 +940,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -961,7 +961,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -970,19 +970,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -991,19 +991,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Strage di Cutro</t>
+          <t>L'omicidio di Giulia Cecchettin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -1150,15 +1150,78 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>Il Corriere Della Sera</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr"/>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>La Repubblica</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Strage di Cutro</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>YouTube</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="E38" t="n">
         <v>14</v>
       </c>
     </row>
